--- a/WorldCupStatistics1930to2014.xlsx
+++ b/WorldCupStatistics1930to2014.xlsx
@@ -110,7 +110,7 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>BER</t>
+    <t>PER</t>
   </si>
   <si>
     <t>Belgium</t>
